--- a/public/download/product_bulk_demo.xlsx
+++ b/public/download/product_bulk_demo.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>name</t>
   </si>
@@ -99,13 +99,34 @@
   </si>
   <si>
     <t xml:space="preserve">Best Selling,demo Product,Baby product </t>
+  </si>
+  <si>
+    <t>attributes</t>
+  </si>
+  <si>
+    <t>["2"]</t>
+  </si>
+  <si>
+    <t>colors</t>
+  </si>
+  <si>
+    <t>["#5F9EA0","#FF69B4","#FFB6C1","#FFC0CB"]</t>
+  </si>
+  <si>
+    <t>choice_options</t>
+  </si>
+  <si>
+    <t>["1","2"]</t>
+  </si>
+  <si>
+    <t>[{"attribute_id":"1","values":["M","L","XL","XXL"]},{"attribute_id":"2","values":["6"]}]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +149,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -145,15 +177,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -437,28 +482,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="K1">
+      <selection activeCell="P8" sqref="P8" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="8.88672"/>
   <cols>
-    <col min="1" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="12" width="23.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" customWidth="1"/>
-    <col min="16" max="16" width="126.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.2852" customWidth="1" style="4"/>
+    <col min="2" max="2" width="18.2852" customWidth="1" style="4"/>
+    <col min="3" max="3" width="17.1406" customWidth="1" style="4"/>
+    <col min="4" max="4" width="19" customWidth="1" style="4"/>
+    <col min="5" max="5" width="20.1406" customWidth="1" style="4"/>
+    <col min="6" max="6" width="16.5703" customWidth="1" style="4"/>
+    <col min="7" max="7" width="16.5703" customWidth="1" style="4"/>
+    <col min="8" max="8" width="16.2852" customWidth="1" style="4"/>
+    <col min="9" max="9" width="16.7109" customWidth="1" style="4"/>
+    <col min="10" max="10" width="12.5703" customWidth="1" style="4"/>
+    <col min="11" max="11" width="23.7109" customWidth="1" style="4"/>
+    <col min="12" max="12" width="23.7109" customWidth="1" style="4"/>
+    <col min="13" max="13" width="15.8555" customWidth="1" style="4"/>
+    <col min="14" max="14" width="11.8555" customWidth="1" style="4"/>
+    <col min="15" max="15" width="11.8555" customWidth="1" style="4"/>
+    <col min="16" max="16" width="70" customWidth="1" bestFit="1" style="4"/>
+    <col min="17" max="17" width="38.2188" customWidth="1" bestFit="1" style="4"/>
+    <col min="18" max="18" width="18.2852" customWidth="1" style="4"/>
+    <col min="19" max="19" width="126.426" customWidth="1" style="4"/>
+    <col min="20" max="16384" width="8.88672" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,64 +553,84 @@
       <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>55</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>59</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="0">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="O2" r:id="rId4"/>
+    <hyperlink ref="P2" r:id="rId5"/>
+    <hyperlink ref="Q2" r:id="rId6"/>
+    <hyperlink ref="R2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
